--- a/main/function/book_status/data/current_book_list.xlsx
+++ b/main/function/book_status/data/current_book_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,30 +506,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>세상을 바꾸는 제4차 산업혁명의 미래</t>
+          <t>실무와 예제를 중심으로 한 OrCAD PCB 설계</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이상헌 지음</t>
+          <t>김종오 안태원 박현찬 공저</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>메이트북스</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>9788997396788</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20221105</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>300 이ㅅ 2022</t>
-        </is>
-      </c>
+          <t>북두</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>오배치</t>
@@ -605,31 +597,260 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>세상을 바꾸는 제4차 산업혁명의 미래</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>이상헌 지음</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>메이트북스</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9788997396788</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20221105</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>300 이ㅅ 2022</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>배치중</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>혼자 공부하는 C언어 개정판</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>서현우 지음</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>한빛미디어</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>배치중</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>THE BIG CONVERSATIONS 빅 컨버세이션</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>황창규 지음</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>시공사</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>배치중</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>쓰면서 익히는 알고리즘과 자료구조</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>윤대석 지음</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>한빛미디어</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D9" t="n">
         <v>9791162244104</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E9" t="n">
         <v>20210329</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>400 윤ㅆ 2021</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>오배치</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>개정판 STM32F 시리즈를 이용한 ARM Cortex-M3/M4 구조와 응용</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>차동혁 김재일 김상민 지음</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>홍릉과학 출판사</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>배치중</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>프로그래밍 대회에서 배우는 알고리즘 문제 해결 전략 1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>구종만 지음</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>인사이트</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>배치중</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>제레드 다이아몬드의 나와 세계</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>재레드 다이아몬드 강주헌 옮김</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>김영사</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>배치중</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>개발자를 위한 머신러닝 &amp; 딥러닝</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>로런스 모로니 지음 박해선 옮김</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>한빛미디어</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>배치중</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>토익 스피킹 기출 단기공략</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>YBM</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>배치중</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C로 배우는 쉬운 자료구조 4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>이지영 지음</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>한빛아카데미</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>배치중</t>
         </is>
